--- a/Documentation/Joris HURTEL/CRA Projet Final - Joris HURTEL.xlsx
+++ b/Documentation/Joris HURTEL/CRA Projet Final - Joris HURTEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Desktop\TP-Final-Gestion-de-la-conso\Documentation\Joris HURTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB77D8B-E504-499F-BD4C-A117BEA78AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA179E05-0F00-4004-AFA3-C3ECF9FFD18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semaine 1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,13 @@
     <sheet name="Semaine 4" sheetId="4" r:id="rId4"/>
     <sheet name="Semaine 5" sheetId="5" r:id="rId5"/>
     <sheet name="Semaine 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Semaine 7" sheetId="7" r:id="rId7"/>
+    <sheet name="Semaine 8" sheetId="8" r:id="rId8"/>
+    <sheet name="Semaine 9" sheetId="9" r:id="rId9"/>
+    <sheet name="Semaine 10" sheetId="10" r:id="rId10"/>
+    <sheet name="Semaine 11" sheetId="11" r:id="rId11"/>
+    <sheet name="Semaine 12" sheetId="12" r:id="rId12"/>
+    <sheet name="Semaine 13" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
   <si>
     <t xml:space="preserve">
 EMPLOI DU TEMPS</t>
@@ -159,7 +166,7 @@
     <t>Correction des livrables 1,2,3,4 et 5 :</t>
   </si>
   <si>
-    <t>Nombre total d'heures depuis le début du projet = 61h30min</t>
+    <t>Nombre total d'heures depuis le début du projet = 58h</t>
   </si>
   <si>
     <t>Rectification des documents</t>
@@ -169,6 +176,48 @@
   </si>
   <si>
     <t>Correction des fautes d'orhtographe</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures = 4h</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures depuis le début du projet = 62h</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures = 10h</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures depuis le début du projet = 72h</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures depuis le début du projet = 82h30min</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures depuis le début du projet = 84h30min</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures = 0h00min</t>
+  </si>
+  <si>
+    <t>Etude comparative</t>
+  </si>
+  <si>
+    <t>Programmation</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures = 2h</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures = 14h30min</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures depuis le début du projet = 99h</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures = 0h</t>
+  </si>
+  <si>
+    <t>Maquettage</t>
   </si>
 </sst>
 </file>
@@ -277,27 +326,29 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1D2125"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF434343"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -393,7 +444,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -516,11 +567,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFF3F3F3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,9 +710,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -656,26 +728,22 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -684,26 +752,50 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,11 +1111,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
+    <tabColor theme="8"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19:G22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1037,11 +1132,11 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1060,15 +1155,15 @@
         <v>45306</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1109,33 +1204,33 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="15" t="str">
-        <f t="shared" ref="C4:I4" si="0">UPPER(TEXT(C3, "DDDD"))</f>
-        <v>DDDD</v>
-      </c>
-      <c r="D4" s="15" t="str">
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="E4" s="15" t="str">
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="F4" s="15" t="str">
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="G4" s="15" t="str">
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="H4" s="15" t="str">
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="I4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>DDDD</v>
+        <v>DIMANCHE</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="15" t="str">
@@ -1210,8 +1305,8 @@
       <c r="J8" s="21"/>
       <c r="K8" s="30"/>
       <c r="L8" s="28" t="str">
-        <f>UPPER("Problème neige")</f>
-        <v>PROBLÈME NEIGE</v>
+        <f>UPPER("Problème neige (non compté)")</f>
+        <v>PROBLÈME NEIGE (NON COMPTÉ)</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1265,7 +1360,7 @@
       <c r="K11" s="31"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="23">
         <v>0.47916666666666669</v>
@@ -1370,7 +1465,7 @@
       <c r="K17" s="31"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="23">
         <v>0.60416666666666663</v>
@@ -1448,7 +1543,7 @@
       <c r="F22" s="26"/>
       <c r="G22" s="36"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="21"/>
       <c r="K22" s="39"/>
       <c r="L22" s="21"/>
@@ -1537,100 +1632,100 @@
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="42"/>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
       <c r="F28" s="42"/>
-      <c r="G28" s="67" t="s">
+      <c r="G28" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
       <c r="J28" s="42"/>
       <c r="K28" s="42"/>
       <c r="L28" s="42"/>
     </row>
-    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
       <c r="J30" s="42"/>
       <c r="K30" s="42"/>
       <c r="L30" s="42"/>
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="44" t="s">
+      <c r="G31" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
       <c r="J31" s="42"/>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="44" t="s">
+      <c r="G32" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
       <c r="J32" s="42"/>
       <c r="K32" s="42"/>
       <c r="L32" s="42"/>
     </row>
     <row r="33" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="42"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="42"/>
-      <c r="G33" s="44" t="s">
+      <c r="G33" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
       <c r="J33" s="43"/>
       <c r="K33" s="42"/>
       <c r="L33" s="42"/>
@@ -1641,614 +1736,29 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E2:I2"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="B30:E30"/>
+    <mergeCell ref="E2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
+    <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="31.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>45313</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="63" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11">
-        <f>C2</f>
-        <v>45313</v>
-      </c>
-      <c r="D3" s="12">
-        <f>C2+1</f>
-        <v>45314</v>
-      </c>
-      <c r="E3" s="12">
-        <f>C2+2</f>
-        <v>45315</v>
-      </c>
-      <c r="F3" s="12">
-        <f>C2+3</f>
-        <v>45316</v>
-      </c>
-      <c r="G3" s="12">
-        <f>C2+4</f>
-        <v>45317</v>
-      </c>
-      <c r="H3" s="12">
-        <f>C2+5</f>
-        <v>45318</v>
-      </c>
-      <c r="I3" s="12">
-        <f>C2+6</f>
-        <v>45319</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="str">
-        <f t="shared" ref="C4:I4" si="0">UPPER(TEXT(C3, "DDDD"))</f>
-        <v>DDDD</v>
-      </c>
-      <c r="D4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="E4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="F4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="G4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="H4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="I4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="15" t="str">
-        <f>UPPER("LÉGENDE")</f>
-        <v>LÉGENDE</v>
-      </c>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="23">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28" t="str">
-        <f>UPPER("Gestion du CRA")</f>
-        <v>GESTION DU CRA</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17">
-        <v>0.375</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="23">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="28" t="str">
-        <f>UPPER("Coupure réseaux")</f>
-        <v>COUPURE RÉSEAUX</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="23">
-        <v>0.4375</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="28" t="str">
-        <f>UPPER("Scénario d'un cas d'utilisation")</f>
-        <v>SCÉNARIO D'UN CAS D'UTILISATION</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="23">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="28" t="str">
-        <f>UPPER("Diagramme des exigences")</f>
-        <v>DIAGRAMME DES EXIGENCES</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="23">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="23">
-        <v>0.5625</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="23">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17">
-        <v>0.625</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="23">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="23">
-        <v>0.6875</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="19"/>
-    </row>
-    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="23">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="23">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-    </row>
-    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-    </row>
-    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-    </row>
-    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-    </row>
-    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:E30"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:L32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2262,12 +1772,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2282,18 +1792,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>45320</v>
+        <v>45383</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2301,31 +1811,31 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11">
         <f>C2</f>
-        <v>45320</v>
+        <v>45383</v>
       </c>
       <c r="D3" s="12">
         <f>C2+1</f>
-        <v>45321</v>
+        <v>45384</v>
       </c>
       <c r="E3" s="12">
         <f>C2+2</f>
-        <v>45322</v>
+        <v>45385</v>
       </c>
       <c r="F3" s="12">
         <f>C2+3</f>
-        <v>45323</v>
+        <v>45386</v>
       </c>
       <c r="G3" s="12">
         <f>C2+4</f>
-        <v>45324</v>
+        <v>45387</v>
       </c>
       <c r="H3" s="12">
         <f>C2+5</f>
-        <v>45325</v>
+        <v>45388</v>
       </c>
       <c r="I3" s="12">
         <f>C2+6</f>
-        <v>45326</v>
+        <v>45389</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -2334,33 +1844,33 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="15" t="str">
-        <f t="shared" ref="C4:I4" si="0">UPPER(TEXT(C3, "DDDD"))</f>
-        <v>DDDD</v>
-      </c>
-      <c r="D4" s="15" t="str">
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="E4" s="15" t="str">
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="F4" s="15" t="str">
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="G4" s="15" t="str">
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="H4" s="15" t="str">
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="I4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>DDDD</v>
+        <v>DIMANCHE</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="15" t="str">
@@ -2378,7 +1888,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="49"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="21"/>
@@ -2393,8 +1903,8 @@
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="49"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="21"/>
@@ -2412,8 +1922,8 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="49"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="21"/>
@@ -2428,15 +1938,15 @@
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="49"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="21"/>
       <c r="K8" s="30"/>
       <c r="L8" s="28" t="str">
-        <f>UPPER("Elaboration du livrable 3")</f>
-        <v>ELABORATION DU LIVRABLE 3</v>
+        <f>UPPER("Etude comparative")</f>
+        <v>ETUDE COMPARATIVE</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2447,8 +1957,8 @@
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="37"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="21"/>
@@ -2461,17 +1971,17 @@
         <v>0.4375</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="50"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="21"/>
       <c r="K10" s="35"/>
       <c r="L10" s="28" t="str">
-        <f>UPPER("élaboration du diagramme de séquence")</f>
-        <v>ÉLABORATION DU DIAGRAMME DE SÉQUENCE</v>
+        <f>UPPER("Présentation Powerpoint")</f>
+        <v>PRÉSENTATION POWERPOINT</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2480,10 +1990,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="50"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="37"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
@@ -2496,17 +2006,17 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="52"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="37"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="52"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="28" t="str">
-        <f>UPPER("compréhension du diagramme de séquence")</f>
-        <v>COMPRÉHENSION DU DIAGRAMME DE SÉQUENCE</v>
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2538,10 +2048,10 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="33"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="28" t="str">
-        <f>UPPER("mcd")</f>
-        <v>MCD</v>
+        <f>UPPER("Gestion du github / trello / drive")</f>
+        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2573,10 +2083,10 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="53"/>
       <c r="L16" s="28" t="str">
-        <f>UPPER("compréhension du sujet")</f>
-        <v>COMPRÉHENSION DU SUJET</v>
+        <f>UPPER("Correction des livrables")</f>
+        <v>CORRECTION DES LIVRABLES</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2588,7 +2098,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="37"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="21"/>
@@ -2604,15 +2114,12 @@
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="28" t="str">
-        <f>UPPER("Rectification du livrable 1")</f>
-        <v>RECTIFICATION DU LIVRABLE 1</v>
-      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
@@ -2623,7 +2130,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="21"/>
@@ -2639,15 +2146,12 @@
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="30"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="28" t="str">
-        <f>UPPER("Rectification du livrable 2")</f>
-        <v>RECTIFICATION DU LIVRABLE 2</v>
-      </c>
+      <c r="K20" s="39"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
@@ -2655,10 +2159,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="20"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="21"/>
@@ -2671,26 +2175,23 @@
         <v>0.6875</v>
       </c>
       <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="26"/>
       <c r="J22" s="21"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="28" t="str">
-        <f>UPPER("Gestion du github / trello / drive")</f>
-        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
-      </c>
+      <c r="K22" s="39"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -2705,8 +2206,8 @@
       <c r="B24" s="23">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -2749,18 +2250,18 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
@@ -2782,33 +2283,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="B29" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
+      <c r="G29" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="B30" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="44" t="s">
-        <v>21</v>
+      <c r="G30" s="70" t="s">
+        <v>39</v>
       </c>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
@@ -2818,13 +2319,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="54" t="s">
-        <v>22</v>
+      <c r="G31" s="71" t="s">
+        <v>40</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
@@ -2834,13 +2335,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="54" t="s">
-        <v>23</v>
+      <c r="G32" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="H32" s="43"/>
       <c r="I32" s="43"/>
@@ -2848,12 +2349,22 @@
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
     </row>
+    <row r="33" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="B30:E30"/>
@@ -2862,14 +2373,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
+    <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30:L34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2883,12 +2397,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2903,18 +2417,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>45327</v>
+        <v>45390</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2922,31 +2436,31 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11">
         <f>C2</f>
-        <v>45327</v>
+        <v>45390</v>
       </c>
       <c r="D3" s="12">
         <f>C2+1</f>
-        <v>45328</v>
+        <v>45391</v>
       </c>
       <c r="E3" s="12">
         <f>C2+2</f>
-        <v>45329</v>
+        <v>45392</v>
       </c>
       <c r="F3" s="12">
         <f>C2+3</f>
-        <v>45330</v>
+        <v>45393</v>
       </c>
       <c r="G3" s="12">
         <f>C2+4</f>
-        <v>45331</v>
+        <v>45394</v>
       </c>
       <c r="H3" s="12">
         <f>C2+5</f>
-        <v>45332</v>
+        <v>45395</v>
       </c>
       <c r="I3" s="12">
         <f>C2+6</f>
-        <v>45333</v>
+        <v>45396</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -2955,33 +2469,33 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="15" t="str">
-        <f t="shared" ref="C4:I4" si="0">UPPER(TEXT(C3, "DDDD"))</f>
-        <v>DDDD</v>
-      </c>
-      <c r="D4" s="15" t="str">
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="E4" s="15" t="str">
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="F4" s="15" t="str">
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="G4" s="15" t="str">
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="H4" s="15" t="str">
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="I4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>DDDD</v>
+        <v>DIMANCHE</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="15" t="str">
@@ -2998,8 +2512,8 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="33"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="21"/>
@@ -3014,8 +2528,8 @@
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="32"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="21"/>
@@ -3033,7 +2547,7 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="37"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -3047,17 +2561,17 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="D8" s="35"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="37"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="21"/>
       <c r="K8" s="30"/>
       <c r="L8" s="28" t="str">
-        <f>UPPER("Planning prévisionnel sur 200h")</f>
-        <v>PLANNING PRÉVISIONNEL SUR 200H</v>
+        <f>UPPER("Etude comparative")</f>
+        <v>ETUDE COMPARATIVE</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3066,10 +2580,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="21"/>
@@ -3082,17 +2596,17 @@
         <v>0.4375</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="21"/>
       <c r="K10" s="35"/>
       <c r="L10" s="28" t="str">
-        <f>UPPER("Dossier de tests")</f>
-        <v>DOSSIER DE TESTS</v>
+        <f>UPPER("Programmation")</f>
+        <v>PROGRAMMATION</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3101,10 +2615,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="19"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="30"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
@@ -3117,17 +2631,17 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="55"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="33"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="28" t="str">
-        <f>UPPER("Elaboration du livrable 4")</f>
-        <v>ELABORATION DU LIVRABLE 4</v>
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3159,10 +2673,10 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="28" t="str">
-        <f>UPPER("compréhension du sujet")</f>
-        <v>COMPRÉHENSION DU SUJET</v>
+        <f>UPPER("Repas (non compté)")</f>
+        <v>REPAS (NON COMPTÉ)</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3194,10 +2708,10 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="20"/>
+      <c r="K16" s="53"/>
       <c r="L16" s="28" t="str">
-        <f>UPPER("Gestion du github / trello / drive")</f>
-        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
+        <f>UPPER("Correction des livrables")</f>
+        <v>CORRECTION DES LIVRABLES</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3209,7 +2723,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="30"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="21"/>
@@ -3225,14 +2739,14 @@
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
-      <c r="G18" s="30"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="28" t="str">
-        <f>UPPER("Alarme incendie")</f>
-        <v>ALARME INCENDIE</v>
+        <f>UPPER("Bon de commande")</f>
+        <v>BON DE COMMANDE</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3244,7 +2758,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="58"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="21"/>
@@ -3256,11 +2770,11 @@
       <c r="B20" s="23">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="35"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="21"/>
@@ -3272,11 +2786,11 @@
       <c r="B21" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="35"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="21"/>
@@ -3288,12 +2802,12 @@
       <c r="B22" s="23">
         <v>0.6875</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="26"/>
       <c r="J22" s="21"/>
       <c r="K22" s="39"/>
@@ -3304,7 +2818,7 @@
       <c r="B23" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -3320,11 +2834,11 @@
       <c r="B24" s="23">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -3364,18 +2878,18 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
@@ -3397,33 +2911,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="B29" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
+      <c r="G29" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="B30" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="56" t="s">
-        <v>27</v>
+      <c r="G30" s="70" t="s">
+        <v>39</v>
       </c>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
@@ -3433,13 +2947,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="57" t="s">
-        <v>28</v>
+      <c r="G31" s="71" t="s">
+        <v>40</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
@@ -3449,13 +2963,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="56" t="s">
-        <v>29</v>
+      <c r="G32" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="H32" s="43"/>
       <c r="I32" s="43"/>
@@ -3463,46 +2977,52 @@
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
+    <row r="33" spans="7:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
       <c r="L33" s="43"/>
     </row>
+    <row r="34" spans="7:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+    </row>
+    <row r="35" spans="7:12" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E2:I2"/>
+  <mergeCells count="7">
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
+    <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3516,12 +3036,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -3536,18 +3056,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>45334</v>
+        <v>45397</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3555,31 +3075,31 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11">
         <f>C2</f>
-        <v>45334</v>
+        <v>45397</v>
       </c>
       <c r="D3" s="12">
         <f>C2+1</f>
-        <v>45335</v>
+        <v>45398</v>
       </c>
       <c r="E3" s="12">
         <f>C2+2</f>
-        <v>45336</v>
+        <v>45399</v>
       </c>
       <c r="F3" s="12">
         <f>C2+3</f>
-        <v>45337</v>
+        <v>45400</v>
       </c>
       <c r="G3" s="12">
         <f>C2+4</f>
-        <v>45338</v>
+        <v>45401</v>
       </c>
       <c r="H3" s="12">
         <f>C2+5</f>
-        <v>45339</v>
+        <v>45402</v>
       </c>
       <c r="I3" s="12">
         <f>C2+6</f>
-        <v>45340</v>
+        <v>45403</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -3588,33 +3108,33 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="15" t="str">
-        <f t="shared" ref="C4:I4" si="0">UPPER(TEXT(C3, "DDDD"))</f>
-        <v>DDDD</v>
-      </c>
-      <c r="D4" s="15" t="str">
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="E4" s="15" t="str">
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="F4" s="15" t="str">
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="G4" s="15" t="str">
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="H4" s="15" t="str">
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="I4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>DDDD</v>
+        <v>DIMANCHE</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="15" t="str">
@@ -3628,11 +3148,11 @@
       <c r="B5" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="21"/>
@@ -3644,11 +3164,11 @@
       <c r="B6" s="23">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="21"/>
@@ -3663,11 +3183,11 @@
       <c r="B7" s="17">
         <v>0.375</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="21"/>
@@ -3679,11 +3199,11 @@
       <c r="B8" s="23">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="21"/>
@@ -3698,11 +3218,11 @@
       <c r="B9" s="17">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="30"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="21"/>
@@ -3714,18 +3234,18 @@
       <c r="B10" s="23">
         <v>0.4375</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="21"/>
       <c r="K10" s="35"/>
       <c r="L10" s="28" t="str">
-        <f>UPPER("Présentation Powerpoint")</f>
-        <v>PRÉSENTATION POWERPOINT</v>
+        <f>UPPER("Programmation")</f>
+        <v>PROGRAMMATION</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3733,11 +3253,11 @@
       <c r="B11" s="17">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="30"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
@@ -3749,11 +3269,11 @@
       <c r="B12" s="23">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="27"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="21"/>
@@ -3768,7 +3288,7 @@
       <c r="B13" s="17">
         <v>0.5</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
@@ -3784,7 +3304,7 @@
       <c r="B14" s="23">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
@@ -3803,7 +3323,7 @@
       <c r="B15" s="17">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -3827,10 +3347,10 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="55"/>
+      <c r="K16" s="53"/>
       <c r="L16" s="28" t="str">
-        <f>UPPER("Bon de commande")</f>
-        <v>BON DE COMMANDE</v>
+        <f>UPPER("Correction des livrables")</f>
+        <v>CORRECTION DES LIVRABLES</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3841,8 +3361,8 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="21"/>
@@ -3857,13 +3377,16 @@
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="30"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="21"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="28" t="str">
+        <f>UPPER("Bon de commande")</f>
+        <v>BON DE COMMANDE</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
@@ -3874,7 +3397,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="27"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="21"/>
@@ -3890,7 +3413,7 @@
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="58"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="21"/>
@@ -3905,8 +3428,8 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="58"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="21"/>
@@ -3918,11 +3441,11 @@
       <c r="B22" s="23">
         <v>0.6875</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="58"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="38"/>
       <c r="I22" s="26"/>
       <c r="J22" s="21"/>
@@ -3950,11 +3473,11 @@
       <c r="B24" s="23">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="26"/>
+      <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -3994,18 +3517,18 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
@@ -4027,33 +3550,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
-      <c r="B29" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="B29" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
+      <c r="G29" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
-      <c r="B30" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="B30" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="56" t="s">
-        <v>34</v>
+      <c r="G30" s="70" t="s">
+        <v>39</v>
       </c>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
@@ -4063,13 +3586,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="57" t="s">
-        <v>35</v>
+      <c r="G31" s="71" t="s">
+        <v>40</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
@@ -4079,13 +3602,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="57" t="s">
-        <v>36</v>
+      <c r="G32" s="71" t="s">
+        <v>41</v>
       </c>
       <c r="H32" s="43"/>
       <c r="I32" s="43"/>
@@ -4093,12 +3616,33 @@
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
     </row>
+    <row r="33" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+    </row>
+    <row r="34" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+    </row>
+    <row r="35" spans="7:12" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E2:K2"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="E2:I2"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="B30:E30"/>
@@ -4107,14 +3651,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E51507A-C520-4346-B50F-230A66DB9B59}">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4128,12 +3675,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -4144,22 +3691,670 @@
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45418</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12">
+        <f>C2</f>
+        <v>45418</v>
+      </c>
+      <c r="D3" s="12">
+        <f>C2+1</f>
+        <v>45419</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C2+2</f>
+        <v>45420</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C2+3</f>
+        <v>45421</v>
+      </c>
+      <c r="G3" s="12">
+        <f>C2+4</f>
+        <v>45422</v>
+      </c>
+      <c r="H3" s="12">
+        <f>C2+5</f>
+        <v>45423</v>
+      </c>
+      <c r="I3" s="12">
+        <f>C2+6</f>
+        <v>45424</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>DIMANCHE</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15" t="str">
+        <f>UPPER("LÉGENDE")</f>
+        <v>LÉGENDE</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="23">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28" t="str">
+        <f>UPPER("Gestion du CRA")</f>
+        <v>GESTION DU CRA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="28" t="str">
+        <f>UPPER("Etude comparative")</f>
+        <v>ETUDE COMPARATIVE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="28" t="str">
+        <f>UPPER("Programmation")</f>
+        <v>PROGRAMMATION</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="28" t="str">
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="28" t="str">
+        <f>UPPER("Gestion du github / trello / drive")</f>
+        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="28" t="str">
+        <f>UPPER("Maquettage")</f>
+        <v>MAQUETTAGE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="28" t="str">
+        <f>UPPER("Bon de commande")</f>
+        <v>BON DE COMMANDE</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="23">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+    </row>
+    <row r="33" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+    </row>
+    <row r="34" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+    </row>
+    <row r="35" spans="7:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor theme="8"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="37.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>45341</v>
+        <v>45313</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4167,31 +4362,31 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11">
         <f>C2</f>
-        <v>45341</v>
+        <v>45313</v>
       </c>
       <c r="D3" s="12">
         <f>C2+1</f>
-        <v>45342</v>
+        <v>45314</v>
       </c>
       <c r="E3" s="12">
         <f>C2+2</f>
-        <v>45343</v>
+        <v>45315</v>
       </c>
       <c r="F3" s="12">
         <f>C2+3</f>
-        <v>45344</v>
+        <v>45316</v>
       </c>
       <c r="G3" s="12">
         <f>C2+4</f>
-        <v>45345</v>
+        <v>45317</v>
       </c>
       <c r="H3" s="12">
         <f>C2+5</f>
-        <v>45346</v>
+        <v>45318</v>
       </c>
       <c r="I3" s="12">
         <f>C2+6</f>
-        <v>45347</v>
+        <v>45319</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -4200,33 +4395,33 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="15" t="str">
-        <f t="shared" ref="C4:I4" si="0">UPPER(TEXT(C3, "DDDD"))</f>
-        <v>DDDD</v>
-      </c>
-      <c r="D4" s="15" t="str">
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="E4" s="15" t="str">
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="F4" s="15" t="str">
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="G4" s="15" t="str">
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="H4" s="15" t="str">
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
         <f t="shared" si="0"/>
-        <v>DDDD</v>
-      </c>
-      <c r="I4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>DDDD</v>
+        <v>DIMANCHE</v>
       </c>
       <c r="J4" s="13"/>
       <c r="K4" s="15" t="str">
@@ -4244,7 +4439,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="21"/>
@@ -4276,6 +4471,1859 @@
         <v>0.375</v>
       </c>
       <c r="C7" s="18"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="28" t="str">
+        <f>UPPER("Coupure réseaux (non comptée)")</f>
+        <v>COUPURE RÉSEAUX (NON COMPTÉE)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="28" t="str">
+        <f>UPPER("Scénario d'un cas d'utilisation")</f>
+        <v>SCÉNARIO D'UN CAS D'UTILISATION</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="28" t="str">
+        <f>UPPER("Diagramme des exigences")</f>
+        <v>DIAGRAMME DES EXIGENCES</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="23">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:E30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="8"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45320</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
+        <f>C2</f>
+        <v>45320</v>
+      </c>
+      <c r="D3" s="12">
+        <f>C2+1</f>
+        <v>45321</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C2+2</f>
+        <v>45322</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C2+3</f>
+        <v>45323</v>
+      </c>
+      <c r="G3" s="12">
+        <f>C2+4</f>
+        <v>45324</v>
+      </c>
+      <c r="H3" s="12">
+        <f>C2+5</f>
+        <v>45325</v>
+      </c>
+      <c r="I3" s="12">
+        <f>C2+6</f>
+        <v>45326</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>DIMANCHE</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15" t="str">
+        <f>UPPER("LÉGENDE")</f>
+        <v>LÉGENDE</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="23">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28" t="str">
+        <f>UPPER("Gestion du CRA")</f>
+        <v>GESTION DU CRA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="28" t="str">
+        <f>UPPER("Elaboration du livrable 3")</f>
+        <v>ELABORATION DU LIVRABLE 3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="28" t="str">
+        <f>UPPER("élaboration du diagramme de séquence")</f>
+        <v>ÉLABORATION DU DIAGRAMME DE SÉQUENCE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="28" t="str">
+        <f>UPPER("compréhension du diagramme de séquence")</f>
+        <v>COMPRÉHENSION DU DIAGRAMME DE SÉQUENCE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="28" t="str">
+        <f>UPPER("mcd")</f>
+        <v>MCD</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="28" t="str">
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="28" t="str">
+        <f>UPPER("Rectification du livrable 1")</f>
+        <v>RECTIFICATION DU LIVRABLE 1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="28" t="str">
+        <f>UPPER("Rectification du livrable 2")</f>
+        <v>RECTIFICATION DU LIVRABLE 2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="28" t="str">
+        <f>UPPER("Gestion du github / trello / drive")</f>
+        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="23">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:E30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="8"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45327</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
+        <f>C2</f>
+        <v>45327</v>
+      </c>
+      <c r="D3" s="12">
+        <f>C2+1</f>
+        <v>45328</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C2+2</f>
+        <v>45329</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C2+3</f>
+        <v>45330</v>
+      </c>
+      <c r="G3" s="12">
+        <f>C2+4</f>
+        <v>45331</v>
+      </c>
+      <c r="H3" s="12">
+        <f>C2+5</f>
+        <v>45332</v>
+      </c>
+      <c r="I3" s="12">
+        <f>C2+6</f>
+        <v>45333</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>DIMANCHE</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15" t="str">
+        <f>UPPER("LÉGENDE")</f>
+        <v>LÉGENDE</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="23">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28" t="str">
+        <f>UPPER("Gestion du CRA")</f>
+        <v>GESTION DU CRA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="28" t="str">
+        <f>UPPER("Planning prévisionnel sur 200h")</f>
+        <v>PLANNING PRÉVISIONNEL SUR 200H</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="28" t="str">
+        <f>UPPER("Dossier de tests")</f>
+        <v>DOSSIER DE TESTS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="28" t="str">
+        <f>UPPER("Elaboration du livrable 4")</f>
+        <v>ELABORATION DU LIVRABLE 4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="28" t="str">
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="28" t="str">
+        <f>UPPER("Gestion du github / trello / drive")</f>
+        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="28" t="str">
+        <f>UPPER("Alarme incendie (non comptée)")</f>
+        <v>ALARME INCENDIE (NON COMPTÉE)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="23">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="78"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+    </row>
+    <row r="33" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="G30:L30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor theme="8"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45334</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
+        <f>C2</f>
+        <v>45334</v>
+      </c>
+      <c r="D3" s="12">
+        <f>C2+1</f>
+        <v>45335</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C2+2</f>
+        <v>45336</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C2+3</f>
+        <v>45337</v>
+      </c>
+      <c r="G3" s="12">
+        <f>C2+4</f>
+        <v>45338</v>
+      </c>
+      <c r="H3" s="12">
+        <f>C2+5</f>
+        <v>45339</v>
+      </c>
+      <c r="I3" s="12">
+        <f>C2+6</f>
+        <v>45340</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>DIMANCHE</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15" t="str">
+        <f>UPPER("LÉGENDE")</f>
+        <v>LÉGENDE</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="23">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28" t="str">
+        <f>UPPER("Gestion du CRA")</f>
+        <v>GESTION DU CRA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="18"/>
       <c r="D7" s="20"/>
       <c r="E7" s="29"/>
       <c r="F7" s="32"/>
@@ -4439,7 +6487,7 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="55"/>
+      <c r="K16" s="53"/>
       <c r="L16" s="28" t="str">
         <f>UPPER("Bon de commande")</f>
         <v>BON DE COMMANDE</v>
@@ -4502,7 +6550,7 @@
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="58"/>
+      <c r="G20" s="54"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="21"/>
@@ -4517,8 +6565,8 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="58"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="21"/>
@@ -4533,10 +6581,10 @@
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="58"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="54"/>
       <c r="H22" s="38"/>
-      <c r="I22" s="26"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="21"/>
       <c r="K22" s="39"/>
       <c r="L22" s="21"/>
@@ -4606,18 +6654,18 @@
       <c r="L26" s="21"/>
     </row>
     <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
@@ -4637,35 +6685,35 @@
       <c r="K28" s="40"/>
       <c r="L28" s="40"/>
     </row>
-    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="69" t="s">
+      <c r="B29" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
+      <c r="G29" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
-    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="B30" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="56" t="s">
-        <v>39</v>
+      <c r="G30" s="70" t="s">
+        <v>34</v>
       </c>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
@@ -4675,13 +6723,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="57" t="s">
-        <v>40</v>
+      <c r="G31" s="71" t="s">
+        <v>35</v>
       </c>
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
@@ -4691,13 +6739,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="57" t="s">
-        <v>41</v>
+      <c r="G32" s="71" t="s">
+        <v>36</v>
       </c>
       <c r="H32" s="43"/>
       <c r="I32" s="43"/>
@@ -4709,8 +6757,2495 @@
   <mergeCells count="7">
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E2:K2"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:E30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="5"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45341</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
+        <f>C2</f>
+        <v>45341</v>
+      </c>
+      <c r="D3" s="12">
+        <f>C2+1</f>
+        <v>45342</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C2+2</f>
+        <v>45343</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C2+3</f>
+        <v>45344</v>
+      </c>
+      <c r="G3" s="12">
+        <f>C2+4</f>
+        <v>45345</v>
+      </c>
+      <c r="H3" s="12">
+        <f>C2+5</f>
+        <v>45346</v>
+      </c>
+      <c r="I3" s="12">
+        <f>C2+6</f>
+        <v>45347</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>DIMANCHE</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15" t="str">
+        <f>UPPER("LÉGENDE")</f>
+        <v>LÉGENDE</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="23">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28" t="str">
+        <f>UPPER("Gestion du CRA")</f>
+        <v>GESTION DU CRA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="28" t="str">
+        <f>UPPER("Etude comparative")</f>
+        <v>ETUDE COMPARATIVE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="28" t="str">
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="28" t="str">
+        <f>UPPER("Gestion du github / trello / drive")</f>
+        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="28" t="str">
+        <f>UPPER("Correction des livrables")</f>
+        <v>CORRECTION DES LIVRABLES</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="C22" s="27"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="23">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:E30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="5"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45362</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
+        <f>C2</f>
+        <v>45362</v>
+      </c>
+      <c r="D3" s="12">
+        <f>C2+1</f>
+        <v>45363</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C2+2</f>
+        <v>45364</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C2+3</f>
+        <v>45365</v>
+      </c>
+      <c r="G3" s="12">
+        <f>C2+4</f>
+        <v>45366</v>
+      </c>
+      <c r="H3" s="12">
+        <f>C2+5</f>
+        <v>45367</v>
+      </c>
+      <c r="I3" s="12">
+        <f>C2+6</f>
+        <v>45368</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>DIMANCHE</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15" t="str">
+        <f>UPPER("LÉGENDE")</f>
+        <v>LÉGENDE</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="23">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28" t="str">
+        <f>UPPER("Gestion du CRA")</f>
+        <v>GESTION DU CRA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="28" t="str">
+        <f>UPPER("Etude comparative")</f>
+        <v>ETUDE COMPARATIVE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="28" t="str">
+        <f>UPPER("Présentation Powerpoint")</f>
+        <v>PRÉSENTATION POWERPOINT</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="28" t="str">
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="28" t="str">
+        <f>UPPER("Gestion du github / trello / drive")</f>
+        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="28" t="str">
+        <f>UPPER("Correction des livrables")</f>
+        <v>CORRECTION DES LIVRABLES</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="23">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+    </row>
+    <row r="33" spans="7:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:E30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="5"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45369</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
+        <f>C2</f>
+        <v>45369</v>
+      </c>
+      <c r="D3" s="12">
+        <f>C2+1</f>
+        <v>45370</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C2+2</f>
+        <v>45371</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C2+3</f>
+        <v>45372</v>
+      </c>
+      <c r="G3" s="12">
+        <f>C2+4</f>
+        <v>45373</v>
+      </c>
+      <c r="H3" s="12">
+        <f>C2+5</f>
+        <v>45374</v>
+      </c>
+      <c r="I3" s="12">
+        <f>C2+6</f>
+        <v>45375</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>DIMANCHE</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15" t="str">
+        <f>UPPER("LÉGENDE")</f>
+        <v>LÉGENDE</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="23">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28" t="str">
+        <f>UPPER("Gestion du CRA")</f>
+        <v>GESTION DU CRA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="28" t="str">
+        <f>UPPER("Etude comparative")</f>
+        <v>ETUDE COMPARATIVE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="28" t="str">
+        <f>UPPER("Présentation Powerpoint")</f>
+        <v>PRÉSENTATION POWERPOINT</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="28" t="str">
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="28" t="str">
+        <f>UPPER("Gestion du github / trello / drive")</f>
+        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="28" t="str">
+        <f>UPPER("Correction des livrables")</f>
+        <v>CORRECTION DES LIVRABLES</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="23">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+    </row>
+    <row r="33" spans="7:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:E30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="5"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45376</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
+        <f>C2</f>
+        <v>45376</v>
+      </c>
+      <c r="D3" s="12">
+        <f>C2+1</f>
+        <v>45377</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C2+2</f>
+        <v>45378</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C2+3</f>
+        <v>45379</v>
+      </c>
+      <c r="G3" s="12">
+        <f>C2+4</f>
+        <v>45380</v>
+      </c>
+      <c r="H3" s="12">
+        <f>C2+5</f>
+        <v>45381</v>
+      </c>
+      <c r="I3" s="12">
+        <f>C2+6</f>
+        <v>45382</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="68" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="68" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="68" t="str">
+        <f t="shared" si="0"/>
+        <v>DIMANCHE</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15" t="str">
+        <f>UPPER("LÉGENDE")</f>
+        <v>LÉGENDE</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="23">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28" t="str">
+        <f>UPPER("Gestion du CRA")</f>
+        <v>GESTION DU CRA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="28" t="str">
+        <f>UPPER("Etude comparative")</f>
+        <v>ETUDE COMPARATIVE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="28" t="str">
+        <f>UPPER("Présentation Powerpoint")</f>
+        <v>PRÉSENTATION POWERPOINT</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="28" t="str">
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="28" t="str">
+        <f>UPPER("Gestion du github / trello / drive")</f>
+        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="28" t="str">
+        <f>UPPER("Correction des livrables")</f>
+        <v>CORRECTION DES LIVRABLES</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="23">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+    </row>
+    <row r="33" spans="7:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="B30:E30"/>

--- a/Documentation/Joris HURTEL/CRA Projet Final - Joris HURTEL.xlsx
+++ b/Documentation/Joris HURTEL/CRA Projet Final - Joris HURTEL.xlsx
@@ -5,27 +5,28 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Desktop\Revue 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA179E05-0F00-4004-AFA3-C3ECF9FFD18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB2E335-BD5B-4DC6-A561-4966036C6CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Semaine 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Semaine 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Semaine 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Semaine 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Semaine 5" sheetId="5" r:id="rId5"/>
-    <sheet name="Semaine 6" sheetId="6" r:id="rId6"/>
-    <sheet name="Semaine 7" sheetId="7" r:id="rId7"/>
-    <sheet name="Semaine 8" sheetId="8" r:id="rId8"/>
-    <sheet name="Semaine 9" sheetId="9" r:id="rId9"/>
-    <sheet name="Semaine 10" sheetId="10" r:id="rId10"/>
-    <sheet name="Semaine 11" sheetId="11" r:id="rId11"/>
-    <sheet name="Semaine 12" sheetId="12" r:id="rId12"/>
-    <sheet name="Semaine 13" sheetId="14" r:id="rId13"/>
+    <sheet name="Comptage" sheetId="27" r:id="rId1"/>
+    <sheet name="Semaine 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Semaine 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Semaine 3" sheetId="3" r:id="rId4"/>
+    <sheet name="Semaine 4" sheetId="4" r:id="rId5"/>
+    <sheet name="Semaine 5" sheetId="5" r:id="rId6"/>
+    <sheet name="Semaine 6" sheetId="6" r:id="rId7"/>
+    <sheet name="Semaine 7" sheetId="7" r:id="rId8"/>
+    <sheet name="Semaine 8" sheetId="8" r:id="rId9"/>
+    <sheet name="Semaine 9" sheetId="9" r:id="rId10"/>
+    <sheet name="Semaine 10" sheetId="10" r:id="rId11"/>
+    <sheet name="Semaine 11" sheetId="11" r:id="rId12"/>
+    <sheet name="Semaine 12" sheetId="12" r:id="rId13"/>
+    <sheet name="Semaine 13" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t xml:space="preserve">
 EMPLOI DU TEMPS</t>
@@ -218,6 +219,18 @@
   </si>
   <si>
     <t>Maquettage</t>
+  </si>
+  <si>
+    <t>ANALYSE (45H)</t>
+  </si>
+  <si>
+    <t>CORRECTION (15H)</t>
+  </si>
+  <si>
+    <t>ETUDE COMPARATIVE (28H30MIN)</t>
+  </si>
+  <si>
+    <t>PROGRAMMATION (11H30MIN)</t>
   </si>
 </sst>
 </file>
@@ -744,6 +757,18 @@
     <xf numFmtId="0" fontId="18" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -752,50 +777,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -811,6 +824,1117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Comptage horaire</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="50"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comptage!$B$2:$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ANALYSE (45H)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CORRECTION (15H)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ETUDE COMPARATIVE (28H30MIN)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PROGRAMMATION (11H30MIN)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comptage!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-235C-48B1-902F-0B65585813E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="264">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6181042-EDFD-4B96-8D33-5C04CDA5EEB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1109,15 +2233,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C241F48-46CE-425A-BBB1-A73402683F68}">
   <sheetPr>
-    <tabColor theme="8"/>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="B2:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>28.5</v>
+      </c>
+      <c r="E3">
+        <v>11.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:G22"/>
+      <selection activeCell="G5" sqref="G5:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1127,17 +2304,17 @@
     <col min="3" max="9" width="18.85546875" customWidth="1"/>
     <col min="10" max="10" width="2.5703125" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="43.7109375" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1152,18 +2329,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>45306</v>
+        <v>45376</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1171,31 +2348,31 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11">
         <f>C2</f>
-        <v>45306</v>
+        <v>45376</v>
       </c>
       <c r="D3" s="12">
         <f>C2+1</f>
-        <v>45307</v>
+        <v>45377</v>
       </c>
       <c r="E3" s="12">
         <f>C2+2</f>
-        <v>45308</v>
+        <v>45378</v>
       </c>
       <c r="F3" s="12">
         <f>C2+3</f>
-        <v>45309</v>
+        <v>45379</v>
       </c>
       <c r="G3" s="12">
         <f>C2+4</f>
-        <v>45310</v>
+        <v>45380</v>
       </c>
       <c r="H3" s="12">
         <f>C2+5</f>
-        <v>45311</v>
+        <v>45381</v>
       </c>
       <c r="I3" s="12">
         <f>C2+6</f>
-        <v>45312</v>
+        <v>45382</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -1204,31 +2381,31 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
+      <c r="C4" s="60" t="str">
         <f>UPPER(TEXT(C3, "JJJJ"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="60" t="str">
         <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
         <v>MARDI</v>
       </c>
-      <c r="E4" s="68" t="str">
+      <c r="E4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>MERCREDI</v>
       </c>
-      <c r="F4" s="68" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>JEUDI</v>
       </c>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>VENDREDI</v>
       </c>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>SAMEDI</v>
       </c>
-      <c r="I4" s="68" t="str">
+      <c r="I4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>DIMANCHE</v>
       </c>
@@ -1247,8 +2424,8 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="21"/>
@@ -1263,8 +2440,8 @@
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="21"/>
@@ -1280,10 +2457,10 @@
         <v>0.375</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="30"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="21"/>
@@ -1296,17 +2473,17 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="25"/>
       <c r="F8" s="30"/>
-      <c r="G8" s="20"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="21"/>
       <c r="K8" s="30"/>
       <c r="L8" s="28" t="str">
-        <f>UPPER("Problème neige (non compté)")</f>
-        <v>PROBLÈME NEIGE (NON COMPTÉ)</v>
+        <f>UPPER("Etude comparative")</f>
+        <v>ETUDE COMPARATIVE</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1315,10 +2492,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="18"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="29"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="33"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="21"/>
@@ -1331,17 +2508,17 @@
         <v>0.4375</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="21"/>
       <c r="K10" s="35"/>
       <c r="L10" s="28" t="str">
-        <f>UPPER("Diagramme de déploiement")</f>
-        <v>DIAGRAMME DE DÉPLOIEMENT</v>
+        <f>UPPER("Présentation Powerpoint")</f>
+        <v>PRÉSENTATION POWERPOINT</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1350,33 +2527,33 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C11" s="18"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="35"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
       <c r="K11" s="31"/>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="23">
         <v>0.47916666666666669</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="36"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="35"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="33"/>
+      <c r="K12" s="32"/>
       <c r="L12" s="28" t="str">
-        <f>UPPER("Diagramme des cas d'utilisation simplifié")</f>
-        <v>DIAGRAMME DES CAS D'UTILISATION SIMPLIFIÉ</v>
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1408,10 +2585,10 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="28" t="str">
-        <f>UPPER("compréhension du sujet")</f>
-        <v>COMPRÉHENSION DU SUJET</v>
+        <f>UPPER("Gestion du github / trello / drive")</f>
+        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1443,10 +2620,10 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="37"/>
+      <c r="K16" s="53"/>
       <c r="L16" s="28" t="str">
-        <f>UPPER("Création du livrable 1")</f>
-        <v>CRÉATION DU LIVRABLE 1</v>
+        <f>UPPER("Correction des livrables")</f>
+        <v>CORRECTION DES LIVRABLES</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,14 +2635,14 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="33"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="21"/>
       <c r="K17" s="31"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="23">
         <v>0.60416666666666663</v>
@@ -1473,16 +2650,13 @@
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="35"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="21"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="28" t="str">
-        <f>UPPER("Création / Gestion du github / trello / drive")</f>
-        <v>CRÉATION / GESTION DU GITHUB / TRELLO / DRIVE</v>
-      </c>
+      <c r="K18" s="39"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
@@ -1493,7 +2667,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="33"/>
+      <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="21"/>
@@ -1509,7 +2683,7 @@
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="33"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="21"/>
@@ -1524,8 +2698,8 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="37"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="21"/>
@@ -1537,13 +2711,13 @@
       <c r="B22" s="23">
         <v>0.6875</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="38"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="21"/>
       <c r="K22" s="39"/>
       <c r="L22" s="21"/>
@@ -1553,8 +2727,8 @@
       <c r="B23" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -1569,11 +2743,11 @@
       <c r="B24" s="23">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="24"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -1612,143 +2786,131 @@
       <c r="K26" s="39"/>
       <c r="L26" s="21"/>
     </row>
-    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41" t="s">
+    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41" t="s">
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-    </row>
-    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-    </row>
-    <row r="29" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
+      <c r="B29" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
+      <c r="G29" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="B30" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+      <c r="G30" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
+      <c r="G31" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-    </row>
-    <row r="33" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
+      <c r="G32" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+    </row>
+    <row r="33" spans="7:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
       <c r="J33" s="43"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="7">
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="B30:E30"/>
-    <mergeCell ref="E2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -1756,7 +2918,7 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -1772,12 +2934,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1795,15 +2957,15 @@
         <v>45383</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -1844,31 +3006,31 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
+      <c r="C4" s="60" t="str">
         <f>UPPER(TEXT(C3, "JJJJ"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="60" t="str">
         <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
         <v>MARDI</v>
       </c>
-      <c r="E4" s="68" t="str">
+      <c r="E4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>MERCREDI</v>
       </c>
-      <c r="F4" s="68" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>JEUDI</v>
       </c>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>VENDREDI</v>
       </c>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>SAMEDI</v>
       </c>
-      <c r="I4" s="68" t="str">
+      <c r="I4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>DIMANCHE</v>
       </c>
@@ -2283,32 +3445,32 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="61" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="43"/>
@@ -2319,12 +3481,12 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="62" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="43"/>
@@ -2335,12 +3497,12 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="62" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="43"/>
@@ -2350,7 +3512,7 @@
       <c r="L32" s="43"/>
     </row>
     <row r="33" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="62" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="43"/>
@@ -2373,7 +3535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -2381,8 +3543,8 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30:L34"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2397,12 +3559,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2420,15 +3582,15 @@
         <v>45390</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -2469,31 +3631,31 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
+      <c r="C4" s="60" t="str">
         <f>UPPER(TEXT(C3, "JJJJ"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="60" t="str">
         <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
         <v>MARDI</v>
       </c>
-      <c r="E4" s="68" t="str">
+      <c r="E4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>MERCREDI</v>
       </c>
-      <c r="F4" s="68" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>JEUDI</v>
       </c>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>VENDREDI</v>
       </c>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>SAMEDI</v>
       </c>
-      <c r="I4" s="68" t="str">
+      <c r="I4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>DIMANCHE</v>
       </c>
@@ -2911,32 +4073,32 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="61" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="43"/>
@@ -2947,12 +4109,12 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="62" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="43"/>
@@ -2963,12 +4125,12 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="62" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="43"/>
@@ -2978,7 +4140,7 @@
       <c r="L32" s="43"/>
     </row>
     <row r="33" spans="7:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="62" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="43"/>
@@ -2988,7 +4150,7 @@
       <c r="L33" s="43"/>
     </row>
     <row r="34" spans="7:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G34" s="71" t="s">
+      <c r="G34" s="62" t="s">
         <v>50</v>
       </c>
       <c r="H34" s="43"/>
@@ -3012,7 +4174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -3036,12 +4198,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -3059,15 +4221,15 @@
         <v>45397</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3108,31 +4270,31 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
+      <c r="C4" s="60" t="str">
         <f>UPPER(TEXT(C3, "JJJJ"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="60" t="str">
         <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
         <v>MARDI</v>
       </c>
-      <c r="E4" s="68" t="str">
+      <c r="E4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>MERCREDI</v>
       </c>
-      <c r="F4" s="68" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>JEUDI</v>
       </c>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>VENDREDI</v>
       </c>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>SAMEDI</v>
       </c>
-      <c r="I4" s="68" t="str">
+      <c r="I4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>DIMANCHE</v>
       </c>
@@ -3550,32 +4712,32 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="61" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="43"/>
@@ -3586,12 +4748,12 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="62" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="43"/>
@@ -3602,12 +4764,12 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="62" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="43"/>
@@ -3617,7 +4779,7 @@
       <c r="L32" s="43"/>
     </row>
     <row r="33" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="62" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="43"/>
@@ -3627,7 +4789,7 @@
       <c r="L33" s="43"/>
     </row>
     <row r="34" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G34" s="71" t="s">
+      <c r="G34" s="62" t="s">
         <v>50</v>
       </c>
       <c r="H34" s="43"/>
@@ -3651,7 +4813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E51507A-C520-4346-B50F-230A66DB9B59}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3659,7 +4821,7 @@
   </sheetPr>
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3675,12 +4837,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -3698,15 +4860,15 @@
         <v>45418</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3747,31 +4909,31 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
+      <c r="C4" s="60" t="str">
         <f>UPPER(TEXT(C3, "JJJJ"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="60" t="str">
         <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
         <v>MARDI</v>
       </c>
-      <c r="E4" s="68" t="str">
+      <c r="E4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>MERCREDI</v>
       </c>
-      <c r="F4" s="68" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>JEUDI</v>
       </c>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>VENDREDI</v>
       </c>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>SAMEDI</v>
       </c>
-      <c r="I4" s="68" t="str">
+      <c r="I4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>DIMANCHE</v>
       </c>
@@ -4189,32 +5351,32 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="42"/>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="61" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="43"/>
@@ -4225,12 +5387,12 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="62" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="43"/>
@@ -4241,12 +5403,12 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="62" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="43"/>
@@ -4256,7 +5418,7 @@
       <c r="L32" s="43"/>
     </row>
     <row r="33" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="71" t="s">
+      <c r="G33" s="62" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="43"/>
@@ -4266,7 +5428,7 @@
       <c r="L33" s="43"/>
     </row>
     <row r="34" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G34" s="71" t="s">
+      <c r="G34" s="62" t="s">
         <v>50</v>
       </c>
       <c r="H34" s="43"/>
@@ -4276,7 +5438,7 @@
       <c r="L34" s="43"/>
     </row>
     <row r="35" spans="7:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G35" s="71" t="s">
+      <c r="G35" s="62" t="s">
         <v>55</v>
       </c>
       <c r="H35" s="43"/>
@@ -4300,6 +5462,646 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="8"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="43.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45306</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
+        <f>C2</f>
+        <v>45306</v>
+      </c>
+      <c r="D3" s="12">
+        <f>C2+1</f>
+        <v>45307</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C2+2</f>
+        <v>45308</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C2+3</f>
+        <v>45309</v>
+      </c>
+      <c r="G3" s="12">
+        <f>C2+4</f>
+        <v>45310</v>
+      </c>
+      <c r="H3" s="12">
+        <f>C2+5</f>
+        <v>45311</v>
+      </c>
+      <c r="I3" s="12">
+        <f>C2+6</f>
+        <v>45312</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="60" t="str">
+        <f>UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="60" t="str">
+        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="60" t="str">
+        <f t="shared" si="0"/>
+        <v>DIMANCHE</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="15" t="str">
+        <f>UPPER("LÉGENDE")</f>
+        <v>LÉGENDE</v>
+      </c>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="23">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28" t="str">
+        <f>UPPER("Gestion du CRA")</f>
+        <v>GESTION DU CRA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="28" t="str">
+        <f>UPPER("Problème neige (non compté)")</f>
+        <v>PROBLÈME NEIGE (NON COMPTÉ)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="28" t="str">
+        <f>UPPER("Diagramme de déploiement")</f>
+        <v>DIAGRAMME DE DÉPLOIEMENT</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="28" t="str">
+        <f>UPPER("Diagramme des cas d'utilisation simplifié")</f>
+        <v>DIAGRAMME DES CAS D'UTILISATION SIMPLIFIÉ</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="28" t="str">
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="28" t="str">
+        <f>UPPER("Création du livrable 1")</f>
+        <v>CRÉATION DU LIVRABLE 1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="23">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="28" t="str">
+        <f>UPPER("Création / Gestion du github / trello / drive")</f>
+        <v>CRÉATION / GESTION DU GITHUB / TRELLO / DRIVE</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="23">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="23">
+        <v>0.6875</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="23">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="23">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+    </row>
+    <row r="29" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+    </row>
+    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="42"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="42"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+    </row>
+    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="42"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+    </row>
+    <row r="33" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B28:E28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -4307,7 +6109,7 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
@@ -4323,11 +6125,11 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4346,15 +6148,15 @@
         <v>45313</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4395,31 +6197,31 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
+      <c r="C4" s="60" t="str">
         <f>UPPER(TEXT(C3, "JJJJ"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="60" t="str">
         <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
         <v>MARDI</v>
       </c>
-      <c r="E4" s="68" t="str">
+      <c r="E4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>MERCREDI</v>
       </c>
-      <c r="F4" s="68" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>JEUDI</v>
       </c>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>VENDREDI</v>
       </c>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>SAMEDI</v>
       </c>
-      <c r="I4" s="68" t="str">
+      <c r="I4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>DIMANCHE</v>
       </c>
@@ -4516,7 +6318,7 @@
       <c r="K9" s="31"/>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="23">
         <v>0.4375</v>
@@ -4828,32 +6630,32 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="61" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="43"/>
@@ -4864,12 +6666,12 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="70" t="s">
+      <c r="G31" s="61" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="43"/>
@@ -4891,7 +6693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -4899,8 +6701,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G22"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4915,11 +6717,11 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4938,15 +6740,15 @@
         <v>45320</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4987,31 +6789,31 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
+      <c r="C4" s="60" t="str">
         <f>UPPER(TEXT(C3, "JJJJ"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="60" t="str">
         <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
         <v>MARDI</v>
       </c>
-      <c r="E4" s="68" t="str">
+      <c r="E4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>MERCREDI</v>
       </c>
-      <c r="F4" s="68" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>JEUDI</v>
       </c>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>VENDREDI</v>
       </c>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>SAMEDI</v>
       </c>
-      <c r="I4" s="68" t="str">
+      <c r="I4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>DIMANCHE</v>
       </c>
@@ -5435,32 +7237,32 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="61" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="43"/>
@@ -5471,12 +7273,12 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="62" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="43"/>
@@ -5487,12 +7289,12 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="62" t="s">
         <v>23</v>
       </c>
       <c r="H32" s="43"/>
@@ -5515,7 +7317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -5523,8 +7325,8 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G22"/>
+    <sheetView showGridLines="0" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5539,11 +7341,11 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -5562,15 +7364,15 @@
         <v>45327</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5611,31 +7413,31 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
+      <c r="C4" s="60" t="str">
         <f>UPPER(TEXT(C3, "JJJJ"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="60" t="str">
         <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
         <v>MARDI</v>
       </c>
-      <c r="E4" s="68" t="str">
+      <c r="E4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>MERCREDI</v>
       </c>
-      <c r="F4" s="68" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>JEUDI</v>
       </c>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>VENDREDI</v>
       </c>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>SAMEDI</v>
       </c>
-      <c r="I4" s="68" t="str">
+      <c r="I4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>DIMANCHE</v>
       </c>
@@ -5920,8 +7722,11 @@
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="21"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="21"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="28" t="str">
+        <f>UPPER("Rectification du livrable 2")</f>
+        <v>RECTIFICATION DU LIVRABLE 2</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
@@ -6053,30 +7858,30 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
       <c r="F30" s="42"/>
       <c r="G30" s="78" t="s">
         <v>27</v>
@@ -6089,48 +7894,48 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="43"/>
       <c r="K31" s="43"/>
       <c r="L31" s="43"/>
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="70" t="s">
+      <c r="G32" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
       <c r="J32" s="43"/>
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
     </row>
     <row r="33" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="42"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="42"/>
-      <c r="G33" s="74" t="s">
+      <c r="G33" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
       <c r="L33" s="43"/>
@@ -6152,7 +7957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8"/>
@@ -6160,8 +7965,8 @@
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6176,12 +7981,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -6199,15 +8004,15 @@
         <v>45334</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -6248,31 +8053,31 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
+      <c r="C4" s="60" t="str">
         <f>UPPER(TEXT(C3, "JJJJ"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="60" t="str">
         <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
         <v>MARDI</v>
       </c>
-      <c r="E4" s="68" t="str">
+      <c r="E4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>MERCREDI</v>
       </c>
-      <c r="F4" s="68" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>JEUDI</v>
       </c>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>VENDREDI</v>
       </c>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>SAMEDI</v>
       </c>
-      <c r="I4" s="68" t="str">
+      <c r="I4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>DIMANCHE</v>
       </c>
@@ -6687,32 +8492,32 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="61" t="s">
         <v>34</v>
       </c>
       <c r="H30" s="43"/>
@@ -6723,12 +8528,12 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="62" t="s">
         <v>35</v>
       </c>
       <c r="H31" s="43"/>
@@ -6739,625 +8544,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="62" t="s">
         <v>36</v>
-      </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:E30"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <tabColor theme="5"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:L32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="42.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>45341</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11">
-        <f>C2</f>
-        <v>45341</v>
-      </c>
-      <c r="D3" s="12">
-        <f>C2+1</f>
-        <v>45342</v>
-      </c>
-      <c r="E3" s="12">
-        <f>C2+2</f>
-        <v>45343</v>
-      </c>
-      <c r="F3" s="12">
-        <f>C2+3</f>
-        <v>45344</v>
-      </c>
-      <c r="G3" s="12">
-        <f>C2+4</f>
-        <v>45345</v>
-      </c>
-      <c r="H3" s="12">
-        <f>C2+5</f>
-        <v>45346</v>
-      </c>
-      <c r="I3" s="12">
-        <f>C2+6</f>
-        <v>45347</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
-        <f>UPPER(TEXT(C3, "JJJJ"))</f>
-        <v>LUNDI</v>
-      </c>
-      <c r="D4" s="68" t="str">
-        <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
-        <v>MARDI</v>
-      </c>
-      <c r="E4" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v>MERCREDI</v>
-      </c>
-      <c r="F4" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v>JEUDI</v>
-      </c>
-      <c r="G4" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v>VENDREDI</v>
-      </c>
-      <c r="H4" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v>SAMEDI</v>
-      </c>
-      <c r="I4" s="68" t="str">
-        <f t="shared" si="0"/>
-        <v>DIMANCHE</v>
-      </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="15" t="str">
-        <f>UPPER("LÉGENDE")</f>
-        <v>LÉGENDE</v>
-      </c>
-      <c r="L4" s="15"/>
-    </row>
-    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="23">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28" t="str">
-        <f>UPPER("Gestion du CRA")</f>
-        <v>GESTION DU CRA</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17">
-        <v>0.375</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="23">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="28" t="str">
-        <f>UPPER("Etude comparative")</f>
-        <v>ETUDE COMPARATIVE</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="23">
-        <v>0.4375</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="28" t="str">
-        <f>UPPER("compréhension du sujet")</f>
-        <v>COMPRÉHENSION DU SUJET</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="23">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="28" t="str">
-        <f>UPPER("Gestion du github / trello / drive")</f>
-        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="23">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="28" t="str">
-        <f>UPPER("Correction des livrables")</f>
-        <v>CORRECTION DES LIVRABLES</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="23">
-        <v>0.5625</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="21"/>
-    </row>
-    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="23">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17">
-        <v>0.625</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="23">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="19"/>
-    </row>
-    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="23">
-        <v>0.6875</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="21"/>
-    </row>
-    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="19"/>
-    </row>
-    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="23">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17">
-        <v>0.75</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="23">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="21"/>
-    </row>
-    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-    </row>
-    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
-    </row>
-    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-    </row>
-    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="74" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-    </row>
-    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-    </row>
-    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="71" t="s">
-        <v>41</v>
       </c>
       <c r="H32" s="43"/>
       <c r="I32" s="43"/>
@@ -7380,15 +8573,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7403,12 +8596,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -7423,18 +8616,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>45362</v>
+        <v>45341</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -7442,31 +8635,31 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11">
         <f>C2</f>
-        <v>45362</v>
+        <v>45341</v>
       </c>
       <c r="D3" s="12">
         <f>C2+1</f>
-        <v>45363</v>
+        <v>45342</v>
       </c>
       <c r="E3" s="12">
         <f>C2+2</f>
-        <v>45364</v>
+        <v>45343</v>
       </c>
       <c r="F3" s="12">
         <f>C2+3</f>
-        <v>45365</v>
+        <v>45344</v>
       </c>
       <c r="G3" s="12">
         <f>C2+4</f>
-        <v>45366</v>
+        <v>45345</v>
       </c>
       <c r="H3" s="12">
         <f>C2+5</f>
-        <v>45367</v>
+        <v>45346</v>
       </c>
       <c r="I3" s="12">
         <f>C2+6</f>
-        <v>45368</v>
+        <v>45347</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -7475,31 +8668,31 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
+      <c r="C4" s="60" t="str">
         <f>UPPER(TEXT(C3, "JJJJ"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="60" t="str">
         <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
         <v>MARDI</v>
       </c>
-      <c r="E4" s="68" t="str">
+      <c r="E4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>MERCREDI</v>
       </c>
-      <c r="F4" s="68" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>JEUDI</v>
       </c>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>VENDREDI</v>
       </c>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>SAMEDI</v>
       </c>
-      <c r="I4" s="68" t="str">
+      <c r="I4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>DIMANCHE</v>
       </c>
@@ -7519,7 +8712,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="21"/>
@@ -7535,7 +8728,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="21"/>
@@ -7554,7 +8747,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="29"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="21"/>
@@ -7570,7 +8763,7 @@
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="21"/>
@@ -7589,7 +8782,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="29"/>
       <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="21"/>
@@ -7605,14 +8798,14 @@
       <c r="D10" s="24"/>
       <c r="E10" s="26"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="35"/>
+      <c r="K10" s="32"/>
       <c r="L10" s="28" t="str">
-        <f>UPPER("Présentation Powerpoint")</f>
-        <v>PRÉSENTATION POWERPOINT</v>
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7623,8 +8816,8 @@
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
@@ -7639,15 +8832,15 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="32"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="28" t="str">
-        <f>UPPER("compréhension du sujet")</f>
-        <v>COMPRÉHENSION DU SUJET</v>
+        <f>UPPER("Gestion du github / trello / drive")</f>
+        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7679,10 +8872,10 @@
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="53"/>
       <c r="L14" s="28" t="str">
-        <f>UPPER("Gestion du github / trello / drive")</f>
-        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
+        <f>UPPER("Correction des livrables")</f>
+        <v>CORRECTION DES LIVRABLES</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7714,11 +8907,8 @@
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
       <c r="J16" s="21"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="28" t="str">
-        <f>UPPER("Correction des livrables")</f>
-        <v>CORRECTION DES LIVRABLES</v>
-      </c>
+      <c r="K16" s="39"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
@@ -7729,7 +8919,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="21"/>
@@ -7745,7 +8935,7 @@
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="21"/>
@@ -7757,11 +8947,11 @@
       <c r="B19" s="17">
         <v>0.625</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="18"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="21"/>
@@ -7773,11 +8963,11 @@
       <c r="B20" s="23">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C20" s="54"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="54"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="21"/>
@@ -7789,11 +8979,11 @@
       <c r="B21" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C21" s="54"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="50"/>
-      <c r="G21" s="18"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="21"/>
@@ -7805,11 +8995,11 @@
       <c r="B22" s="23">
         <v>0.6875</v>
       </c>
-      <c r="C22" s="54"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="38"/>
       <c r="E22" s="26"/>
       <c r="F22" s="52"/>
-      <c r="G22" s="24"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="21"/>
@@ -7821,11 +9011,11 @@
       <c r="B23" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="54"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="18"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="21"/>
@@ -7837,11 +9027,11 @@
       <c r="B24" s="23">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C24" s="54"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="24"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -7914,32 +9104,32 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
+      <c r="B29" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="74" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
+      <c r="B30" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="61" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="43"/>
@@ -7950,12 +9140,12 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="62" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="43"/>
@@ -7966,12 +9156,12 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="62" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="43"/>
@@ -7979,16 +9169,6 @@
       <c r="J32" s="43"/>
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
-    </row>
-    <row r="33" spans="7:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8005,15 +9185,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8028,12 +9208,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -8048,18 +9228,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>45369</v>
+        <v>45362</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -8067,31 +9247,31 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11">
         <f>C2</f>
-        <v>45369</v>
+        <v>45362</v>
       </c>
       <c r="D3" s="12">
         <f>C2+1</f>
-        <v>45370</v>
+        <v>45363</v>
       </c>
       <c r="E3" s="12">
         <f>C2+2</f>
-        <v>45371</v>
+        <v>45364</v>
       </c>
       <c r="F3" s="12">
         <f>C2+3</f>
-        <v>45372</v>
+        <v>45365</v>
       </c>
       <c r="G3" s="12">
         <f>C2+4</f>
-        <v>45373</v>
+        <v>45366</v>
       </c>
       <c r="H3" s="12">
         <f>C2+5</f>
-        <v>45374</v>
+        <v>45367</v>
       </c>
       <c r="I3" s="12">
         <f>C2+6</f>
-        <v>45375</v>
+        <v>45368</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -8100,31 +9280,31 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
+      <c r="C4" s="60" t="str">
         <f>UPPER(TEXT(C3, "JJJJ"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="60" t="str">
         <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
         <v>MARDI</v>
       </c>
-      <c r="E4" s="68" t="str">
+      <c r="E4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>MERCREDI</v>
       </c>
-      <c r="F4" s="68" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>JEUDI</v>
       </c>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>VENDREDI</v>
       </c>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>SAMEDI</v>
       </c>
-      <c r="I4" s="68" t="str">
+      <c r="I4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>DIMANCHE</v>
       </c>
@@ -8144,7 +9324,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-      <c r="G5" s="30"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="21"/>
@@ -8160,7 +9340,7 @@
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="26"/>
-      <c r="G6" s="30"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
       <c r="J6" s="21"/>
@@ -8178,8 +9358,8 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="55"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="21"/>
@@ -8194,8 +9374,8 @@
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="55"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="21"/>
@@ -8213,8 +9393,8 @@
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="56"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="21"/>
@@ -8229,8 +9409,8 @@
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="57"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="21"/>
@@ -8249,7 +9429,7 @@
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
       <c r="F11" s="30"/>
-      <c r="G11" s="57"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
@@ -8265,7 +9445,7 @@
       <c r="D12" s="24"/>
       <c r="E12" s="26"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="57"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="21"/>
@@ -8354,7 +9534,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="55"/>
+      <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="21"/>
@@ -8370,7 +9550,7 @@
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="55"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="21"/>
@@ -8382,11 +9562,11 @@
       <c r="B19" s="17">
         <v>0.625</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="57"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="21"/>
@@ -8398,11 +9578,11 @@
       <c r="B20" s="23">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C20" s="38"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="57"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="21"/>
@@ -8414,11 +9594,11 @@
       <c r="B21" s="17">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C21" s="19"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="50"/>
-      <c r="G21" s="57"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="21"/>
@@ -8430,11 +9610,11 @@
       <c r="B22" s="23">
         <v>0.6875</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="38"/>
       <c r="E22" s="26"/>
       <c r="F22" s="52"/>
-      <c r="G22" s="27"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="21"/>
@@ -8446,11 +9626,11 @@
       <c r="B23" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="21"/>
@@ -8462,7 +9642,7 @@
       <c r="B24" s="23">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C24" s="38"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="38"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -8539,32 +9719,32 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
+      <c r="B29" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
+      <c r="B30" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="61" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="43"/>
@@ -8575,12 +9755,12 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="62" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="43"/>
@@ -8591,12 +9771,12 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="62" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="43"/>
@@ -8605,8 +9785,8 @@
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="7:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="71" t="s">
+    <row r="33" spans="7:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="62" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="43"/>
@@ -8630,7 +9810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8653,12 +9833,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="27" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -8673,18 +9853,18 @@
         <v>1</v>
       </c>
       <c r="C2" s="7">
-        <v>45376</v>
+        <v>45369</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
       <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -8692,31 +9872,31 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11">
         <f>C2</f>
-        <v>45376</v>
+        <v>45369</v>
       </c>
       <c r="D3" s="12">
         <f>C2+1</f>
-        <v>45377</v>
+        <v>45370</v>
       </c>
       <c r="E3" s="12">
         <f>C2+2</f>
-        <v>45378</v>
+        <v>45371</v>
       </c>
       <c r="F3" s="12">
         <f>C2+3</f>
-        <v>45379</v>
+        <v>45372</v>
       </c>
       <c r="G3" s="12">
         <f>C2+4</f>
-        <v>45380</v>
+        <v>45373</v>
       </c>
       <c r="H3" s="12">
         <f>C2+5</f>
-        <v>45381</v>
+        <v>45374</v>
       </c>
       <c r="I3" s="12">
         <f>C2+6</f>
-        <v>45382</v>
+        <v>45375</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
@@ -8725,31 +9905,31 @@
     <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="68" t="str">
+      <c r="C4" s="60" t="str">
         <f>UPPER(TEXT(C3, "JJJJ"))</f>
         <v>LUNDI</v>
       </c>
-      <c r="D4" s="68" t="str">
+      <c r="D4" s="60" t="str">
         <f t="shared" ref="D4:I4" si="0">UPPER(TEXT(D3, "JJJJ"))</f>
         <v>MARDI</v>
       </c>
-      <c r="E4" s="68" t="str">
+      <c r="E4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>MERCREDI</v>
       </c>
-      <c r="F4" s="68" t="str">
+      <c r="F4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>JEUDI</v>
       </c>
-      <c r="G4" s="68" t="str">
+      <c r="G4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>VENDREDI</v>
       </c>
-      <c r="H4" s="68" t="str">
+      <c r="H4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>SAMEDI</v>
       </c>
-      <c r="I4" s="68" t="str">
+      <c r="I4" s="60" t="str">
         <f t="shared" si="0"/>
         <v>DIMANCHE</v>
       </c>
@@ -8768,7 +9948,7 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="30"/>
+      <c r="F5" s="19"/>
       <c r="G5" s="30"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -8784,7 +9964,7 @@
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="30"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="30"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
@@ -8801,10 +9981,10 @@
         <v>0.375</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="30"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="G7" s="55"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="21"/>
@@ -8817,10 +9997,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C8" s="24"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="55"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
       <c r="J8" s="21"/>
@@ -8839,7 +10019,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="29"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="21"/>
@@ -8854,8 +10034,8 @@
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="57"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="21"/>
@@ -8873,8 +10053,8 @@
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
@@ -8889,8 +10069,8 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="21"/>
@@ -8979,7 +10159,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="21"/>
@@ -8995,7 +10175,7 @@
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
       <c r="J18" s="21"/>
@@ -9011,7 +10191,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="21"/>
@@ -9027,7 +10207,7 @@
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="38"/>
       <c r="I20" s="38"/>
       <c r="J20" s="21"/>
@@ -9042,8 +10222,8 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="21"/>
@@ -9058,10 +10238,10 @@
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="38"/>
-      <c r="I22" s="26"/>
+      <c r="I22" s="38"/>
       <c r="J22" s="21"/>
       <c r="K22" s="39"/>
       <c r="L22" s="21"/>
@@ -9071,8 +10251,8 @@
       <c r="B23" s="17">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -9087,8 +10267,8 @@
       <c r="B24" s="23">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="24"/>
@@ -9164,32 +10344,32 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="42"/>
-      <c r="B29" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
+      <c r="B29" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="42"/>
-      <c r="G29" s="65" t="s">
+      <c r="G29" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
       <c r="J29" s="42"/>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="42"/>
-      <c r="B30" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
+      <c r="B30" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
       <c r="F30" s="42"/>
-      <c r="G30" s="70" t="s">
+      <c r="G30" s="61" t="s">
         <v>39</v>
       </c>
       <c r="H30" s="43"/>
@@ -9200,12 +10380,12 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="42"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="71" t="s">
+      <c r="G31" s="62" t="s">
         <v>40</v>
       </c>
       <c r="H31" s="43"/>
@@ -9216,12 +10396,12 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="42"/>
-      <c r="G32" s="71" t="s">
+      <c r="G32" s="62" t="s">
         <v>41</v>
       </c>
       <c r="H32" s="43"/>
@@ -9230,8 +10410,8 @@
       <c r="K32" s="43"/>
       <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="7:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="71" t="s">
+    <row r="33" spans="7:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="62" t="s">
         <v>49</v>
       </c>
       <c r="H33" s="43"/>

--- a/Documentation/Joris HURTEL/CRA Projet Final - Joris HURTEL.xlsx
+++ b/Documentation/Joris HURTEL/CRA Projet Final - Joris HURTEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris HURTEL\Desktop\Mettre après\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joris HURTEL\TP-Final-Gestion-de-la-conso\Documentation\Joris HURTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21F32F8-8599-48B8-B07E-7428A9E25D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC29AF29-2296-46C0-84E5-26BC5C4221E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comptage" sheetId="1" r:id="rId1"/>
@@ -2628,7 +2628,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -13304,7 +13304,7 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13651,7 +13651,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="23">
         <v>0.60416666666666663</v>

--- a/Documentation/Joris HURTEL/CRA Projet Final - Joris HURTEL.xlsx
+++ b/Documentation/Joris HURTEL/CRA Projet Final - Joris HURTEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joris HURTEL\TP-Final-Gestion-de-la-conso\Documentation\Joris HURTEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Desktop\TP-Final-Gestion-de-la-conso\Documentation\Joris HURTEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC29AF29-2296-46C0-84E5-26BC5C4221E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42825C46-F3DB-4394-96EC-F0850D0D9ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comptage" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Semaine 12" sheetId="13" r:id="rId13"/>
     <sheet name="Semaine 13" sheetId="14" r:id="rId14"/>
     <sheet name="Semaine 14" sheetId="15" r:id="rId15"/>
+    <sheet name="Semaine 15" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,28 +42,19 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId19" roundtripDataChecksum="0nOHaSdr485+Lb983ZSm72bs9eCfnslzw69bMoaoLQI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId20" roundtripDataChecksum="JBg7vwBk9zHsln7RPF+fsNmOPJ/MlxfhIhiJUSVCQzU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="65">
-  <si>
-    <t>MAQUETTAGE (11H)</t>
-  </si>
-  <si>
-    <t>ANALYSE (48H)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="67">
   <si>
     <t>CORRECTION (17H30MIN)</t>
   </si>
   <si>
     <t>ETUDE COMPARATIVE (28H30MIN)</t>
-  </si>
-  <si>
-    <t>PROGRAMMATION (48H)</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -246,10 +238,25 @@
     <t>Maquettage</t>
   </si>
   <si>
-    <t>Nombre total d'heures = 25h00min</t>
+    <t>Nombre total d'heures = 31h</t>
   </si>
   <si>
-    <t>Nombre total d'heures depuis le début du projet = 162h30min</t>
+    <t>Nombre total d'heures depuis le début du projet = 168h30min</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures = 32h00min</t>
+  </si>
+  <si>
+    <t>Nombre total d'heures depuis le début du projet = 200h30min</t>
+  </si>
+  <si>
+    <t>ANALYSE (54H)</t>
+  </si>
+  <si>
+    <t>PROGRAMMATION (63H)</t>
+  </si>
+  <si>
+    <t>MAQUETTAGE (29H)</t>
   </si>
 </sst>
 </file>
@@ -469,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -705,15 +712,9 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFF3F3F3"/>
       </bottom>
@@ -721,152 +722,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD9D9D9"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -876,12 +735,8 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFF3F3F3"/>
       </bottom>
@@ -889,38 +744,30 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD9D9D9"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFF3F3F3"/>
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -930,14 +777,47 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD9D9D9"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color theme="0"/>
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFF3F3F3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color rgb="FFD9D9D9"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFF3F3F3"/>
       </bottom>
@@ -946,9 +826,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color rgb="FFF3F3F3"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FFF3F3F3"/>
       </bottom>
@@ -958,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1111,25 +989,13 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1138,87 +1004,52 @@
     <xf numFmtId="0" fontId="12" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1412,7 +1243,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0D8E-4B99-95A8-9C1F3A47836E}"/>
+                <c16:uniqueId val="{00000001-0294-4A93-8EF0-C6F4159CCC17}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1435,11 +1266,6 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-A8FB-4A18-AC47-EF3129F1AA28}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1460,11 +1286,6 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-A8FB-4A18-AC47-EF3129F1AA28}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1485,11 +1306,6 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-A8FB-4A18-AC47-EF3129F1AA28}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1510,11 +1326,6 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-A8FB-4A18-AC47-EF3129F1AA28}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1593,19 +1404,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>ANALYSE (48H)</c:v>
+                  <c:v>MAQUETTAGE (29H)</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>ANALYSE (54H)</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>CORRECTION (17H30MIN)</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>ETUDE COMPARATIVE (28H30MIN)</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>PROGRAMMATION (48H)</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>MAQUETTAGE (11H)</c:v>
+                  <c:v>PROGRAMMATION (63H)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1617,26 +1428,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>17.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>28.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>48</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0D8E-4B99-95A8-9C1F3A47836E}"/>
+              <c16:uniqueId val="{00000002-0294-4A93-8EF0-C6F4159CCC17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2393,12 +2204,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>127138</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>105558</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="7136710" cy="4037876"/>
+    <xdr:ext cx="5067300" cy="2867025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1640244916" name="Chart 1" title="Graphique">
@@ -2628,54 +2439,53 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="26" width="10.5703125" customWidth="1"/>
+    <col min="6" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1">
         <v>17.5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>28.5</v>
       </c>
-      <c r="D3" s="1">
-        <v>48</v>
-      </c>
       <c r="E3" s="1">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3704,12 +3514,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -3721,21 +3531,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <v>45376</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -4122,7 +3932,7 @@
       <c r="B23" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="99"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="29"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
@@ -4138,7 +3948,7 @@
       <c r="B24" s="23">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C24" s="94"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -4198,14 +4008,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -4215,33 +4025,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
-      <c r="B30" s="111" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -4251,13 +4061,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -4267,13 +4077,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -4283,7 +4093,7 @@
     </row>
     <row r="33" spans="7:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
@@ -5281,7 +5091,7 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5295,12 +5105,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -5312,21 +5122,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <v>45383</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -5789,14 +5599,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -5806,33 +5616,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
-      <c r="B30" s="111" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -5842,13 +5652,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -5858,13 +5668,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -5874,7 +5684,7 @@
     </row>
     <row r="33" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
@@ -6872,7 +6682,7 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6886,12 +6696,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -6903,21 +6713,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <v>45390</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -7017,8 +6827,8 @@
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="95"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="21"/>
@@ -7036,8 +6846,8 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="95"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="36"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="21"/>
@@ -7052,7 +6862,7 @@
       <c r="C8" s="24"/>
       <c r="D8" s="34"/>
       <c r="E8" s="25"/>
-      <c r="F8" s="86"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -7071,7 +6881,7 @@
       <c r="C9" s="19"/>
       <c r="D9" s="34"/>
       <c r="E9" s="28"/>
-      <c r="F9" s="86"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -7087,8 +6897,8 @@
       <c r="C10" s="24"/>
       <c r="D10" s="34"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="96"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="21"/>
@@ -7106,8 +6916,8 @@
       <c r="C11" s="19"/>
       <c r="D11" s="34"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="97"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
@@ -7122,8 +6932,8 @@
       <c r="C12" s="24"/>
       <c r="D12" s="26"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="97"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
       <c r="J12" s="21"/>
@@ -7383,14 +7193,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -7400,33 +7210,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
-      <c r="B30" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -7436,13 +7246,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -7452,13 +7262,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -7468,7 +7278,7 @@
     </row>
     <row r="33" spans="7:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
@@ -7478,7 +7288,7 @@
     </row>
     <row r="34" spans="7:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G34" s="54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
@@ -8489,12 +8299,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -8506,21 +8316,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="61">
         <v>45425</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -8986,14 +8796,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -9003,33 +8813,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
-      <c r="B29" s="115" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
-      <c r="B30" s="116" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -9039,13 +8849,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -9055,13 +8865,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -9071,7 +8881,7 @@
     </row>
     <row r="33" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
@@ -9081,7 +8891,7 @@
     </row>
     <row r="34" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G34" s="54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
@@ -10092,12 +9902,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -10109,21 +9919,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="61">
         <v>45432</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -10205,9 +10015,9 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C5" s="19"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="90"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="34"/>
       <c r="G5" s="34"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
@@ -10221,9 +10031,9 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="81"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="34"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
@@ -10240,9 +10050,9 @@
         <v>0.375</v>
       </c>
       <c r="C7" s="28"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="81"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -10256,9 +10066,9 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C8" s="25"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="81"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -10275,9 +10085,9 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C9" s="28"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="91"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="34"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
@@ -10291,9 +10101,9 @@
         <v>0.4375</v>
       </c>
       <c r="C10" s="24"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="92"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="34"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
@@ -10310,9 +10120,9 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C11" s="19"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -10326,9 +10136,9 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
@@ -10417,7 +10227,7 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="85"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -10433,7 +10243,7 @@
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
-      <c r="F18" s="86"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
@@ -10452,7 +10262,7 @@
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="86"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -10468,7 +10278,7 @@
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
-      <c r="F20" s="86"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
@@ -10484,7 +10294,7 @@
       <c r="C21" s="19"/>
       <c r="D21" s="34"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="94"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="34"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -10500,7 +10310,7 @@
       <c r="C22" s="24"/>
       <c r="D22" s="34"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="87"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="26"/>
       <c r="H22" s="37"/>
       <c r="I22" s="24"/>
@@ -10589,14 +10399,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -10606,33 +10416,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
-      <c r="B29" s="115" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
-      <c r="B30" s="116" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -10642,13 +10452,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -10658,13 +10468,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -10674,7 +10484,7 @@
     </row>
     <row r="33" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
@@ -10684,7 +10494,7 @@
     </row>
     <row r="34" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G34" s="54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
@@ -10694,7 +10504,7 @@
     </row>
     <row r="35" spans="7:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G35" s="54" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H35" s="42"/>
       <c r="I35" s="42"/>
@@ -11690,8 +11500,8 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11706,12 +11516,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -11723,21 +11533,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="61">
         <v>45439</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -11819,10 +11629,10 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C5" s="19"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="21"/>
@@ -11835,10 +11645,10 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C6" s="25"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="21"/>
@@ -11853,11 +11663,11 @@
       <c r="B7" s="18">
         <v>0.375</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="28"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="21"/>
@@ -11869,11 +11679,11 @@
       <c r="B8" s="23">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="25"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
       <c r="J8" s="21"/>
@@ -11888,11 +11698,11 @@
       <c r="B9" s="18">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="28"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="34"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="21"/>
@@ -11904,11 +11714,11 @@
       <c r="B10" s="23">
         <v>0.4375</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="24"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="21"/>
@@ -11923,15 +11733,15 @@
       <c r="B11" s="18">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="19"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="63"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -11939,15 +11749,15 @@
       <c r="B12" s="23">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="64"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="31"/>
       <c r="L12" s="27" t="str">
         <f>UPPER("compréhension du sujet")</f>
         <v>COMPRÉHENSION DU SUJET</v>
@@ -11976,7 +11786,7 @@
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
@@ -11995,13 +11805,13 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="66"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="63"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12016,8 +11826,8 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
       <c r="I16" s="24"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="65"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="27" t="str">
         <f>UPPER("Maquettage")</f>
         <v>MAQUETTAGE</v>
@@ -12028,11 +11838,11 @@
       <c r="B17" s="18">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="19"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="69"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="21"/>
@@ -12041,33 +11851,33 @@
     </row>
     <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
-      <c r="B18" s="71">
+      <c r="B18" s="23">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="37"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="37"/>
+      <c r="G18" s="69"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
       <c r="J18" s="21"/>
       <c r="K18" s="36"/>
       <c r="L18" s="27" t="str">
-        <f>UPPER("Bon de commande")</f>
-        <v>BON DE COMMANDE</v>
+        <f>UPPER("Cahier des charges")</f>
+        <v>CAHIER DES CHARGES</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
-      <c r="B19" s="72">
+      <c r="B19" s="18">
         <v>0.625</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="19"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="19"/>
+      <c r="G19" s="69"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="21"/>
@@ -12076,14 +11886,14 @@
     </row>
     <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
-      <c r="B20" s="71">
+      <c r="B20" s="23">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="37"/>
       <c r="F20" s="34"/>
-      <c r="G20" s="37"/>
+      <c r="G20" s="69"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
       <c r="J20" s="21"/>
@@ -12092,14 +11902,14 @@
     </row>
     <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
-      <c r="B21" s="72">
+      <c r="B21" s="18">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="77"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="19"/>
       <c r="F21" s="34"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="69"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="21"/>
@@ -12108,14 +11918,14 @@
     </row>
     <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
-      <c r="B22" s="71">
+      <c r="B22" s="23">
         <v>0.6875</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="37"/>
       <c r="I22" s="24"/>
       <c r="J22" s="21"/>
@@ -12127,8 +11937,8 @@
       <c r="B23" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
@@ -12143,8 +11953,8 @@
       <c r="B24" s="23">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -12159,8 +11969,8 @@
       <c r="B25" s="18">
         <v>0.75</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="55"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -12203,14 +12013,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -12220,33 +12030,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
-      <c r="B29" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
-      <c r="B30" s="116" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -12256,13 +12066,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -12272,13 +12082,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -12288,7 +12098,7 @@
     </row>
     <row r="33" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
@@ -12298,7 +12108,7 @@
     </row>
     <row r="34" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G34" s="54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
@@ -12308,7 +12118,1621 @@
     </row>
     <row r="35" spans="7:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G35" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+    </row>
+    <row r="36" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:E30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:L1000"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="2.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="42.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="61">
+        <v>45446</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12">
+        <f>C2</f>
+        <v>45446</v>
+      </c>
+      <c r="D3" s="12">
+        <f>C2+1</f>
+        <v>45447</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C2+2</f>
+        <v>45448</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C2+3</f>
+        <v>45449</v>
+      </c>
+      <c r="G3" s="12">
+        <f>C2+4</f>
+        <v>45450</v>
+      </c>
+      <c r="H3" s="12">
+        <f>C2+5</f>
+        <v>45451</v>
+      </c>
+      <c r="I3" s="12">
+        <f>C2+6</f>
+        <v>45452</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="str">
+        <f t="shared" ref="C4:I4" si="0">UPPER(TEXT(C3, "JJJJ"))</f>
+        <v>LUNDI</v>
+      </c>
+      <c r="D4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>MARDI</v>
+      </c>
+      <c r="E4" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>MERCREDI</v>
+      </c>
+      <c r="F4" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>JEUDI</v>
+      </c>
+      <c r="G4" s="70" t="str">
+        <f t="shared" si="0"/>
+        <v>VENDREDI</v>
+      </c>
+      <c r="H4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>SAMEDI</v>
+      </c>
+      <c r="I4" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>DIMANCHE</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="16" t="str">
+        <f>UPPER("LÉGENDE")</f>
+        <v>LÉGENDE</v>
+      </c>
+      <c r="L4" s="16"/>
+    </row>
+    <row r="5" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="23">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27" t="str">
+        <f>UPPER("Gestion du CRA")</f>
+        <v>GESTION DU CRA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="23">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="27" t="str">
+        <f>UPPER("Etude comparative")</f>
+        <v>ETUDE COMPARATIVE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C9" s="69"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="23">
+        <v>0.4375</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="27" t="str">
+        <f>UPPER("Programmation")</f>
+        <v>PROGRAMMATION</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="23">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="27" t="str">
+        <f>UPPER("compréhension du sujet")</f>
+        <v>COMPRÉHENSION DU SUJET</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="23">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="27" t="str">
+        <f>UPPER("Gestion du github / trello / drive")</f>
+        <v>GESTION DU GITHUB / TRELLO / DRIVE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="27" t="str">
+        <f>UPPER("Maquettage")</f>
+        <v>MAQUETTAGE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="76">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="79">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="27" t="str">
+        <f>UPPER("Cahier des charges")</f>
+        <v>CAHIER DES CHARGES</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="76">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="79">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="76">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="79">
+        <v>0.6875</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="76">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="79">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="23">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+    </row>
+    <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="98" t="s">
         <v>62</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+    </row>
+    <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+    </row>
+    <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="41"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+    </row>
+    <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="41"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+    </row>
+    <row r="33" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+    </row>
+    <row r="34" spans="7:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+    </row>
+    <row r="35" spans="7:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="54" t="s">
+        <v>59</v>
       </c>
       <c r="H35" s="42"/>
       <c r="I35" s="42"/>
@@ -13304,7 +14728,7 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -13318,11 +14742,11 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -13335,21 +14759,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <v>45306</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -13651,7 +15075,7 @@
       <c r="K17" s="30"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="23">
         <v>0.60416666666666663</v>
@@ -13801,14 +15225,14 @@
     <row r="27" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
       <c r="G27" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
@@ -13818,49 +15242,49 @@
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="41"/>
-      <c r="B28" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
+      <c r="B28" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="41"/>
-      <c r="G28" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
+      <c r="G28" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
       <c r="J28" s="41"/>
       <c r="K28" s="41"/>
       <c r="L28" s="41"/>
     </row>
     <row r="29" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
+      <c r="B29" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
+      <c r="G29" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
@@ -13870,13 +15294,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="43" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
@@ -13886,13 +15310,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
@@ -13902,13 +15326,13 @@
     </row>
     <row r="33" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="41"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
       <c r="F33" s="41"/>
       <c r="G33" s="43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
@@ -14923,11 +16347,11 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -14940,21 +16364,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <v>45313</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -15411,14 +16835,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -15428,33 +16852,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="108" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
-      <c r="B30" s="111" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -15464,13 +16888,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -16483,11 +17907,11 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -16500,21 +17924,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <v>45320</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -16986,14 +18410,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -17003,33 +18427,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="108" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
-      <c r="B30" s="111" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -17039,13 +18463,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="54" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -17055,13 +18479,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="54" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -18074,11 +19498,11 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -18091,21 +19515,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <v>45327</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -18574,14 +19998,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -18591,49 +20015,49 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
-      <c r="B30" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
-      <c r="G30" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="101"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="114"/>
+      <c r="G30" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="97"/>
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
@@ -18643,13 +20067,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
@@ -18659,16 +20083,16 @@
     </row>
     <row r="33" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="41"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
       <c r="F33" s="41"/>
-      <c r="G33" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
+      <c r="G33" s="94" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
       <c r="J33" s="42"/>
       <c r="K33" s="42"/>
       <c r="L33" s="42"/>
@@ -19680,12 +21104,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -19697,21 +21121,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <v>45334</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -20174,14 +21598,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -20191,33 +21615,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="108" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
-      <c r="B30" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -20227,13 +21651,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="54" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -20243,13 +21667,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -21262,12 +22686,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -21279,21 +22703,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <v>45341</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -21753,14 +23177,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -21770,33 +23194,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
-      <c r="B30" s="111" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -21806,13 +23230,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -21822,13 +23246,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -22841,12 +24265,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -22858,21 +24282,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <v>45362</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -23335,14 +24759,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -23352,33 +24776,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
-      <c r="B30" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -23388,13 +24812,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -23404,13 +24828,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -23420,7 +24844,7 @@
     </row>
     <row r="33" spans="7:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
@@ -24432,12 +25856,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3"/>
-      <c r="B1" s="102" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="104"/>
+      <c r="B1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -24449,21 +25873,21 @@
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" s="9">
         <v>45369</v>
       </c>
       <c r="D2" s="10"/>
-      <c r="E2" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
+      <c r="E2" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -24926,14 +26350,14 @@
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -24943,33 +26367,33 @@
     </row>
     <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="41"/>
-      <c r="B29" s="108" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
+      <c r="B29" s="91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="110" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="G29" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
       <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="41"/>
-      <c r="B30" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
+      <c r="B30" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="41"/>
       <c r="G30" s="43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H30" s="42"/>
       <c r="I30" s="42"/>
@@ -24979,13 +26403,13 @@
     </row>
     <row r="31" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="41"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="41"/>
       <c r="G31" s="54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -24995,13 +26419,13 @@
     </row>
     <row r="32" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="41"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
       <c r="F32" s="41"/>
       <c r="G32" s="54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
@@ -25011,7 +26435,7 @@
     </row>
     <row r="33" spans="7:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G33" s="54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H33" s="42"/>
       <c r="I33" s="42"/>
